--- a/docs/StructureDefinition-VA.MHV.medication.xlsx
+++ b/docs/StructureDefinition-VA.MHV.medication.xlsx
@@ -610,7 +610,7 @@
 This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
-    <t>final</t>
+    <t>active</t>
   </si>
   <si>
     <t>required</t>
@@ -3668,7 +3668,7 @@
         <v>41</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>40</v>

--- a/docs/StructureDefinition-VA.MHV.medication.xlsx
+++ b/docs/StructureDefinition-VA.MHV.medication.xlsx
@@ -6,16 +6,144 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Elements" r:id="rId3" sheetId="1"/>
+    <sheet name="Metadata" r:id="rId3" sheetId="1"/>
+    <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$57</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1996" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="457">
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://johnmoehrke.github.io/MHV-PGHD/StructureDefinition/VA.MHV.medication</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>0.2.6-beta</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>MHVmedication</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>VA MHV Medication</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2020-12-16</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A profile on the MedicationStatement that declares how MHV will Create/Update in PGHD.
+**Proposed mapping not yet approved for implementation**
+* NOT Derived off of US-Core as there is no MedicationStatement in US-Core
+* must be marked with MHV app tag
+* must have a medication name
+* must have a strength per dose
+* must have a reason for use
+* must have effectiveDateTime
+* must have status at final, stopped, or complete
+* must point at the patient
+* may have a note 
+* may have quantity
+* may have frequency
+* may have method of taking
+* may have a rx number
+* may indicate where it was filled
+* may indicate who prescribed
+* may indicate if side affects or none
+* once created will or might have an id, versionId, lastUpdated, text, and identifier
+</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>FHIR Version</t>
+  </si>
+  <si>
+    <t>4.0.1</t>
+  </si>
+  <si>
+    <t>Kind</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>MedicationStatement</t>
+  </si>
+  <si>
+    <t>Base Definition</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/MedicationStatement</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>Derivation</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
   <si>
     <t>Path</t>
   </si>
@@ -132,9 +260,6 @@
   </si>
   <si>
     <t>Mapping: HL7 v2 Mapping</t>
-  </si>
-  <si>
-    <t>MedicationStatement</t>
   </si>
   <si>
     <t/>
@@ -608,9 +733,6 @@
     <t>MedicationStatement is a statement at a point in time.  The status is only representative at the point when it was asserted.  The value set for MedicationStatement.status contains codes that assert the status of the use of the medication by the patient (for example, stopped or on hold) as well as codes that assert the status of the medication statement itself (for example, entered in error).  This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
-  </si>
-  <si>
-    <t>active</t>
   </si>
   <si>
     <t>required</t>
@@ -1470,29 +1592,185 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" tabSelected="true"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="15.703125" customWidth="true"/>
+    <col min="2" max="2" width="80.703125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>24</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:AM57"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="true">
+    <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
       <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -1542,6352 +1820,6334 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>21</v>
+        <v>58</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>27</v>
+        <v>64</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="AE1" t="s" s="1">
+        <v>67</v>
+      </c>
+      <c r="AF1" t="s" s="1">
+        <v>68</v>
+      </c>
+      <c r="AG1" t="s" s="1">
+        <v>69</v>
+      </c>
+      <c r="AH1" t="s" s="1">
+        <v>70</v>
+      </c>
+      <c r="AI1" t="s" s="1">
+        <v>71</v>
+      </c>
+      <c r="AJ1" t="s" s="1">
+        <v>72</v>
+      </c>
+      <c r="AK1" t="s" s="1">
+        <v>73</v>
+      </c>
+      <c r="AL1" t="s" s="1">
+        <v>74</v>
+      </c>
+      <c r="AM1" t="s" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
         <v>30</v>
-      </c>
-      <c r="AF1" t="s" s="1">
-        <v>31</v>
-      </c>
-      <c r="AG1" t="s" s="1">
-        <v>32</v>
-      </c>
-      <c r="AH1" t="s" s="1">
-        <v>33</v>
-      </c>
-      <c r="AI1" t="s" s="1">
-        <v>34</v>
-      </c>
-      <c r="AJ1" t="s" s="1">
-        <v>35</v>
-      </c>
-      <c r="AK1" t="s" s="1">
-        <v>36</v>
-      </c>
-      <c r="AL1" t="s" s="1">
-        <v>37</v>
-      </c>
-      <c r="AM1" t="s" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" hidden="true">
-      <c r="A2" t="s" s="2">
-        <v>39</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>43</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>44</v>
+        <v>80</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>53</v>
+        <v>89</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>54</v>
+        <v>90</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>55</v>
+        <v>91</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>56</v>
+        <v>92</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>59</v>
+        <v>95</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
-        <v>79</v>
+        <v>115</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>80</v>
+        <v>116</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>81</v>
+        <v>117</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>94</v>
+        <v>130</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>92</v>
+        <v>128</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" t="s" s="2">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" t="s" s="2">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>185</v>
+        <v>11</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>188</v>
+        <v>223</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>190</v>
+        <v>225</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>191</v>
+        <v>226</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>194</v>
+        <v>229</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>196</v>
+        <v>231</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>197</v>
+        <v>232</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>198</v>
+        <v>233</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>192</v>
+        <v>227</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>199</v>
+        <v>234</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>200</v>
+        <v>235</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>202</v>
+        <v>237</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>203</v>
+        <v>238</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>204</v>
+        <v>239</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>205</v>
+        <v>240</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>207</v>
+        <v>242</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>210</v>
+        <v>245</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>212</v>
+        <v>247</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>213</v>
+        <v>248</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>208</v>
+        <v>243</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>214</v>
+        <v>249</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>216</v>
+        <v>251</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>219</v>
+        <v>254</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>220</v>
+        <v>255</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>221</v>
+        <v>256</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>222</v>
+        <v>257</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>223</v>
+        <v>258</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>224</v>
+        <v>259</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>226</v>
+        <v>261</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>225</v>
+        <v>260</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>236</v>
+        <v>271</v>
       </c>
       <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>237</v>
+        <v>272</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>241</v>
+        <v>276</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>233</v>
+        <v>268</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>235</v>
+        <v>270</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>231</v>
+        <v>266</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>238</v>
+        <v>273</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>240</v>
+        <v>275</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>244</v>
+        <v>279</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>245</v>
+        <v>280</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>242</v>
+        <v>277</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>246</v>
+        <v>281</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>247</v>
+        <v>282</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>249</v>
+        <v>284</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>251</v>
+        <v>286</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>252</v>
+        <v>287</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>253</v>
+        <v>288</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>255</v>
+        <v>290</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>258</v>
+        <v>293</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>254</v>
+        <v>289</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>259</v>
+        <v>294</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>261</v>
+        <v>296</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>263</v>
+        <v>298</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>264</v>
+        <v>299</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>265</v>
+        <v>300</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>266</v>
+        <v>301</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>267</v>
+        <v>302</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>269</v>
+        <v>304</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>268</v>
+        <v>303</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>286</v>
+        <v>321</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>287</v>
+        <v>322</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>288</v>
+        <v>323</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>289</v>
+        <v>324</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>290</v>
+        <v>325</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>291</v>
+        <v>326</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>292</v>
+        <v>327</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>293</v>
+        <v>328</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>294</v>
+        <v>329</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>298</v>
+        <v>333</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" t="s" s="2">
-        <v>299</v>
+        <v>334</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>302</v>
+        <v>337</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>304</v>
+        <v>339</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>305</v>
+        <v>340</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" t="s" s="2">
-        <v>306</v>
+        <v>341</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>308</v>
+        <v>343</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>309</v>
+        <v>344</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>311</v>
+        <v>346</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>312</v>
+        <v>347</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>316</v>
+        <v>351</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>317</v>
+        <v>352</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>317</v>
+        <v>352</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>239</v>
+        <v>274</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>338</v>
+        <v>373</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>339</v>
+        <v>374</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>340</v>
+        <v>375</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>347</v>
+        <v>382</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>348</v>
+        <v>383</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>349</v>
+        <v>384</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>350</v>
+        <v>385</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>351</v>
+        <v>386</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="X47" s="2"/>
       <c r="Y47" t="s" s="2">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>354</v>
+        <v>389</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>356</v>
+        <v>391</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>357</v>
+        <v>392</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>358</v>
+        <v>393</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>359</v>
+        <v>394</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>360</v>
+        <v>395</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>361</v>
+        <v>396</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W48" t="s" s="2">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>362</v>
+        <v>397</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>363</v>
+        <v>398</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>364</v>
+        <v>399</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>365</v>
+        <v>400</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>366</v>
+        <v>401</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>367</v>
+        <v>402</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>368</v>
+        <v>403</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>369</v>
+        <v>404</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>370</v>
+        <v>405</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>371</v>
+        <v>406</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>372</v>
+        <v>407</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>373</v>
+        <v>408</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>374</v>
+        <v>409</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>69</v>
+        <v>105</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>76</v>
+        <v>112</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>375</v>
+        <v>410</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>193</v>
+        <v>228</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>376</v>
+        <v>411</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>377</v>
+        <v>412</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" t="s" s="2">
-        <v>378</v>
+        <v>413</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>379</v>
+        <v>414</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>380</v>
+        <v>415</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>381</v>
+        <v>416</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>382</v>
+        <v>417</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>383</v>
+        <v>418</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I53" t="s" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>384</v>
+        <v>419</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>385</v>
+        <v>420</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>386</v>
+        <v>421</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>387</v>
+        <v>422</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>388</v>
+        <v>423</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>389</v>
+        <v>424</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>365</v>
+        <v>400</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>390</v>
+        <v>425</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>391</v>
+        <v>426</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I54" t="s" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>392</v>
+        <v>427</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>393</v>
+        <v>428</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>394</v>
+        <v>429</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>395</v>
+        <v>430</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>396</v>
+        <v>431</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R54" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>397</v>
+        <v>432</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>398</v>
+        <v>433</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>399</v>
+        <v>434</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>400</v>
+        <v>435</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>401</v>
+        <v>436</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>402</v>
+        <v>437</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>403</v>
+        <v>438</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>404</v>
+        <v>439</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>405</v>
+        <v>440</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R55" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>406</v>
+        <v>441</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>407</v>
+        <v>442</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>408</v>
+        <v>443</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>409</v>
+        <v>444</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>410</v>
+        <v>445</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>411</v>
+        <v>446</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>412</v>
+        <v>447</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>413</v>
+        <v>448</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>414</v>
+        <v>449</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R56" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>415</v>
+        <v>450</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>416</v>
+        <v>451</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>417</v>
+        <v>452</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>410</v>
+        <v>445</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>418</v>
+        <v>453</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>419</v>
+        <v>454</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" t="s" s="2">
-        <v>420</v>
+        <v>455</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>421</v>
+        <v>456</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>416</v>
+        <v>451</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM57">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI56">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/docs/StructureDefinition-VA.MHV.medication.xlsx
+++ b/docs/StructureDefinition-VA.MHV.medication.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.6-beta</t>
+    <t>0.2.7-beta</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-VA.MHV.medication.xlsx
+++ b/docs/StructureDefinition-VA.MHV.medication.xlsx
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>

--- a/docs/StructureDefinition-VA.MHV.medication.xlsx
+++ b/docs/StructureDefinition-VA.MHV.medication.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.7-beta</t>
+    <t>0.2.8-beta</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-VA.MHV.medication.xlsx
+++ b/docs/StructureDefinition-VA.MHV.medication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="457">
   <si>
     <t>Property</t>
   </si>
@@ -66,6 +66,9 @@
     <t>Publisher</t>
   </si>
   <si>
+    <t>John Moehrke (himself)</t>
+  </si>
+  <si>
     <t>Contact</t>
   </si>
   <si>
@@ -75,32 +78,31 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>United States of America</t>
+    <t>World</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t xml:space="preserve">A profile on the MedicationStatement that declares how MHV will Create/Update in PGHD.
-**Proposed mapping not yet approved for implementation**
-* NOT Derived off of US-Core as there is no MedicationStatement in US-Core
-* must be marked with MHV app tag
-* must have a medication name
-* must have a strength per dose
-* must have a reason for use
-* must have effectiveDateTime
-* must have status at final, stopped, or complete
-* must point at the patient
-* may have a note 
-* may have quantity
-* may have frequency
-* may have method of taking
-* may have a rx number
-* may indicate where it was filled
-* may indicate who prescribed
-* may indicate if side affects or none
-* once created will or might have an id, versionId, lastUpdated, text, and identifier
-</t>
+    <t>A profile on the MedicationStatement that declares how MHV will Create/Update in PGHD.
+**Proposed mapping not yet approved for implementation**
+* NOT Derived off of US-Core as there is no MedicationStatement in US-Core
+* must be marked with MHV app tag
+* must have a medication name
+* must have a strength per dose
+* must have a reason for use
+* must have effectiveDateTime
+* must have status at final, stopped, or complete
+* must point at the patient
+* may have a note 
+* may have quantity
+* may have frequency
+* may have method of taking
+* may have a rx number
+* may indicate where it was filled
+* may indicate who prescribed
+* may indicate if side affects or none
+* once created will or might have an id, versionId, lastUpdated, text, and identifier</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -290,10 +292,6 @@
 Status=In Error + NotTaken=N/A = In Error.</t>
   </si>
   <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>Event</t>
   </si>
   <si>
@@ -307,47 +305,51 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>MedicationStatement.meta.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>MedicationStatement.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
-</t>
-  </si>
-  <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>MedicationStatement.meta.id</t>
-  </si>
-  <si>
     <t>Unique id for inter-element referencing</t>
   </si>
   <si>
@@ -398,10 +400,6 @@
   </si>
   <si>
     <t>MedicationStatement.meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
-</t>
   </si>
   <si>
     <t>Version specific identifier</t>
@@ -1597,7 +1595,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1675,37 +1673,41 @@
       <c r="A9" t="s" s="2">
         <v>16</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" t="s" s="2">
+        <v>17</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s" s="2">
         <v>19</v>
-      </c>
-      <c r="B11" t="s" s="2">
-        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>21</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s" s="2">
         <v>23</v>
       </c>
-      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
@@ -1717,48 +1719,54 @@
       <c r="A15" t="s" s="2">
         <v>25</v>
       </c>
-      <c r="B15" t="s" s="2">
-        <v>26</v>
-      </c>
+      <c r="B15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>27</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>29</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>31</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>33</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="B20" t="s" s="2">
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
         <v>36</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1777,17 +1785,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.62109375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="14.6484375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="87.03515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="87.0390625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1796,23 +1804,23 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="192.3984375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="70.47265625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="70.4765625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="37.89453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.71875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="135.96875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="25.01171875" customWidth="true" bestFit="true"/>
@@ -1820,220 +1828,220 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>83</v>
@@ -2042,10 +2050,10 @@
         <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
@@ -2054,20 +2062,20 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>87</v>
@@ -2086,77 +2094,77 @@
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
@@ -2165,20 +2173,20 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>87</v>
@@ -2195,77 +2203,77 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>97</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
@@ -2274,246 +2282,246 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>117</v>
@@ -2526,77 +2534,77 @@
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>120</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
@@ -2605,20 +2613,20 @@
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s" s="2">
         <v>87</v>
@@ -2637,77 +2645,77 @@
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
         <v>126</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
@@ -2716,20 +2724,20 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s" s="2">
         <v>87</v>
@@ -2748,77 +2756,77 @@
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>132</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
@@ -2827,20 +2835,20 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>87</v>
@@ -2859,77 +2867,77 @@
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
@@ -2938,20 +2946,20 @@
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>87</v>
@@ -2970,26 +2978,26 @@
       </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W11" t="s" s="2">
         <v>144</v>
@@ -3001,46 +3009,46 @@
         <v>146</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>147</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12">
@@ -3049,7 +3057,7 @@
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
@@ -3059,10 +3067,10 @@
         <v>86</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
         <v>87</v>
@@ -3081,26 +3089,26 @@
       </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R12" t="s" s="2">
         <v>152</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W12" t="s" s="2">
         <v>153</v>
@@ -3112,46 +3120,46 @@
         <v>155</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>156</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
@@ -3160,17 +3168,17 @@
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>87</v>
@@ -3192,77 +3200,77 @@
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>161</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14">
@@ -3271,23 +3279,23 @@
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>163</v>
@@ -3303,26 +3311,26 @@
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
         <v>167</v>
@@ -3334,46 +3342,46 @@
         <v>169</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>170</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
@@ -3386,19 +3394,19 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
         <v>173</v>
@@ -3414,77 +3422,77 @@
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
         <v>177</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>178</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
@@ -3497,19 +3505,19 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>181</v>
@@ -3525,77 +3533,77 @@
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
         <v>185</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>186</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
@@ -3604,109 +3612,109 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L17" t="s" s="2">
         <v>188</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
         <v>189</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>186</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
@@ -3715,26 +3723,26 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>87</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K18" t="s" s="2">
         <v>191</v>
@@ -3743,83 +3751,83 @@
         <v>192</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N18" t="s" s="2">
         <v>193</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
         <v>194</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>186</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
@@ -3828,20 +3836,20 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>87</v>
@@ -3860,62 +3868,62 @@
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
         <v>195</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>98</v>
@@ -3930,7 +3938,7 @@
         <v>202</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
@@ -3939,20 +3947,20 @@
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>87</v>
@@ -3971,62 +3979,62 @@
         <v>207</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
         <v>203</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>98</v>
@@ -4038,10 +4046,10 @@
         <v>209</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21">
@@ -4050,20 +4058,20 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>87</v>
@@ -4082,62 +4090,62 @@
         <v>214</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
         <v>210</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>98</v>
@@ -4149,10 +4157,10 @@
         <v>216</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22">
@@ -4161,7 +4169,7 @@
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
@@ -4171,7 +4179,7 @@
         <v>86</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>87</v>
@@ -4193,26 +4201,26 @@
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R22" t="s" s="2">
         <v>11</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W22" t="s" s="2">
         <v>221</v>
@@ -4224,19 +4232,19 @@
         <v>223</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>217</v>
@@ -4248,7 +4256,7 @@
         <v>86</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>98</v>
@@ -4263,7 +4271,7 @@
         <v>226</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23">
@@ -4272,23 +4280,23 @@
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>228</v>
@@ -4304,26 +4312,26 @@
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W23" t="s" s="2">
         <v>153</v>
@@ -4335,31 +4343,31 @@
         <v>233</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
         <v>227</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>98</v>
@@ -4371,10 +4379,10 @@
         <v>235</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24">
@@ -4383,20 +4391,20 @@
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F24" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>87</v>
@@ -4413,26 +4421,26 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W24" t="s" s="2">
         <v>167</v>
@@ -4444,37 +4452,37 @@
         <v>240</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
         <v>236</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>241</v>
@@ -4483,7 +4491,7 @@
         <v>242</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
@@ -4492,7 +4500,7 @@
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4502,10 +4510,10 @@
         <v>86</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>87</v>
@@ -4524,26 +4532,26 @@
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W25" t="s" s="2">
         <v>153</v>
@@ -4555,19 +4563,19 @@
         <v>248</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
         <v>243</v>
@@ -4579,7 +4587,7 @@
         <v>86</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>98</v>
@@ -4594,7 +4602,7 @@
         <v>251</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
@@ -4603,7 +4611,7 @@
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
@@ -4613,10 +4621,10 @@
         <v>86</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>87</v>
@@ -4633,50 +4641,50 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
         <v>252</v>
@@ -4688,7 +4696,7 @@
         <v>86</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>98</v>
@@ -4712,20 +4720,20 @@
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>87</v>
@@ -4742,62 +4750,62 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
         <v>260</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>98</v>
@@ -4809,10 +4817,10 @@
         <v>265</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="28">
@@ -4821,7 +4829,7 @@
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
@@ -4831,10 +4839,10 @@
         <v>86</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>87</v>
@@ -4853,45 +4861,45 @@
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>271</v>
       </c>
       <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD28" t="s" s="2">
         <v>272</v>
@@ -4900,13 +4908,13 @@
         <v>266</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>98</v>
@@ -4921,7 +4929,7 @@
         <v>275</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29">
@@ -4932,7 +4940,7 @@
         <v>276</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
@@ -4942,10 +4950,10 @@
         <v>86</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>87</v>
@@ -4964,62 +4972,62 @@
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
         <v>266</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>98</v>
@@ -5034,7 +5042,7 @@
         <v>275</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30">
@@ -5043,7 +5051,7 @@
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -5053,10 +5061,10 @@
         <v>86</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>87</v>
@@ -5073,68 +5081,68 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
         <v>277</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>281</v>
@@ -5143,7 +5151,7 @@
         <v>282</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
@@ -5152,23 +5160,23 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
         <v>284</v>
@@ -5182,68 +5190,68 @@
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
         <v>283</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>287</v>
@@ -5252,7 +5260,7 @@
         <v>288</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
@@ -5261,23 +5269,23 @@
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>290</v>
@@ -5293,77 +5301,77 @@
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
         <v>289</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>294</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33">
@@ -5372,23 +5380,23 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>228</v>
@@ -5404,26 +5412,26 @@
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W33" t="s" s="2">
         <v>153</v>
@@ -5435,31 +5443,31 @@
         <v>300</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
         <v>295</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>98</v>
@@ -5474,7 +5482,7 @@
         <v>303</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
@@ -5483,23 +5491,23 @@
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>305</v>
@@ -5515,62 +5523,62 @@
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P34" s="2"/>
       <c r="Q34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
         <v>304</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>98</v>
@@ -5585,7 +5593,7 @@
         <v>303</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35">
@@ -5594,23 +5602,23 @@
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
         <v>312</v>
@@ -5624,62 +5632,62 @@
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P35" s="2"/>
       <c r="Q35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
         <v>311</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>98</v>
@@ -5691,10 +5699,10 @@
         <v>316</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36">
@@ -5703,23 +5711,23 @@
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F36" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
         <v>318</v>
@@ -5735,77 +5743,77 @@
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P36" s="2"/>
       <c r="Q36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
         <v>317</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>322</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37">
@@ -5814,107 +5822,107 @@
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38">
@@ -5923,109 +5931,109 @@
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P38" s="2"/>
       <c r="Q38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39">
@@ -6038,13 +6046,13 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>87</v>
@@ -6053,7 +6061,7 @@
         <v>87</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>327</v>
@@ -6062,83 +6070,83 @@
         <v>328</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N39" t="s" s="2">
         <v>193</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
         <v>329</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>186</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40">
@@ -6147,20 +6155,20 @@
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F40" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>87</v>
@@ -6179,74 +6187,74 @@
         <v>334</v>
       </c>
       <c r="O40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P40" s="2"/>
       <c r="Q40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
         <v>335</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>336</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>337</v>
@@ -6258,26 +6266,26 @@
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="K41" t="s" s="2">
         <v>339</v>
@@ -6290,74 +6298,74 @@
         <v>341</v>
       </c>
       <c r="O41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P41" s="2"/>
       <c r="Q41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
         <v>342</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>336</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>343</v>
@@ -6369,20 +6377,20 @@
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>87</v>
@@ -6403,26 +6411,26 @@
         <v>348</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W42" t="s" s="2">
         <v>153</v>
@@ -6434,43 +6442,43 @@
         <v>350</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
         <v>351</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>336</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>352</v>
@@ -6482,26 +6490,26 @@
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>87</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>354</v>
@@ -6512,74 +6520,74 @@
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P43" s="2"/>
       <c r="Q43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
         <v>356</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>336</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>352</v>
@@ -6591,20 +6599,20 @@
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F44" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>87</v>
@@ -6625,77 +6633,77 @@
         <v>362</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P44" s="2"/>
       <c r="Q44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
         <v>363</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>274</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45">
@@ -6704,20 +6712,20 @@
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>87</v>
@@ -6736,26 +6744,26 @@
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W45" t="s" s="2">
         <v>153</v>
@@ -6767,43 +6775,43 @@
         <v>370</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
         <v>371</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>372</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>373</v>
@@ -6815,20 +6823,20 @@
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F46" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>87</v>
@@ -6849,26 +6857,26 @@
         <v>378</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P46" s="2"/>
       <c r="Q46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W46" t="s" s="2">
         <v>153</v>
@@ -6880,43 +6888,43 @@
         <v>380</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
         <v>381</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>382</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>383</v>
@@ -6928,20 +6936,20 @@
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F47" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>87</v>
@@ -6960,26 +6968,26 @@
         <v>387</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P47" s="2"/>
       <c r="Q47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W47" t="s" s="2">
         <v>221</v>
@@ -6989,43 +6997,43 @@
         <v>388</v>
       </c>
       <c r="Z47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE47" t="s" s="2">
         <v>389</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>390</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>391</v>
@@ -7037,20 +7045,20 @@
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F48" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>87</v>
@@ -7071,26 +7079,26 @@
         <v>396</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P48" s="2"/>
       <c r="Q48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W48" t="s" s="2">
         <v>153</v>
@@ -7102,43 +7110,43 @@
         <v>398</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE48" t="s" s="2">
         <v>399</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>400</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>401</v>
@@ -7150,20 +7158,20 @@
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>87</v>
@@ -7180,74 +7188,74 @@
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P49" s="2"/>
       <c r="Q49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE49" t="s" s="2">
         <v>406</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>407</v>
@@ -7259,107 +7267,107 @@
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="51">
@@ -7368,109 +7376,109 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P51" s="2"/>
       <c r="Q51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="52">
@@ -7479,20 +7487,20 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F52" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>87</v>
@@ -7511,26 +7519,26 @@
         <v>413</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P52" s="2"/>
       <c r="Q52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W52" t="s" s="2">
         <v>153</v>
@@ -7542,43 +7550,43 @@
         <v>415</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE52" t="s" s="2">
         <v>416</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>417</v>
@@ -7590,20 +7598,20 @@
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F53" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>87</v>
@@ -7624,74 +7632,74 @@
         <v>423</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P53" s="2"/>
       <c r="Q53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE53" t="s" s="2">
         <v>424</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>400</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>425</v>
@@ -7703,20 +7711,20 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>87</v>
@@ -7737,74 +7745,74 @@
         <v>431</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P54" s="2"/>
       <c r="Q54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE54" t="s" s="2">
         <v>432</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>433</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>434</v>
@@ -7816,20 +7824,20 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>87</v>
@@ -7850,74 +7858,74 @@
         <v>440</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P55" s="2"/>
       <c r="Q55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE55" t="s" s="2">
         <v>441</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>442</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>443</v>
@@ -7929,20 +7937,20 @@
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F56" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>87</v>
@@ -7963,77 +7971,77 @@
         <v>449</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P56" s="2"/>
       <c r="Q56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE56" t="s" s="2">
         <v>450</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>451</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57">
@@ -8042,20 +8050,20 @@
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F57" t="s" s="2">
         <v>86</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I57" t="s" s="2">
         <v>87</v>
@@ -8074,77 +8082,77 @@
         <v>455</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P57" s="2"/>
       <c r="Q57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE57" t="s" s="2">
         <v>456</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>86</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>98</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>451</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/docs/StructureDefinition-VA.MHV.medication.xlsx
+++ b/docs/StructureDefinition-VA.MHV.medication.xlsx
@@ -78,7 +78,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>

--- a/docs/StructureDefinition-VA.MHV.medication.xlsx
+++ b/docs/StructureDefinition-VA.MHV.medication.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.8-beta</t>
+    <t>0.2.9-beta</t>
   </si>
   <si>
     <t>Name</t>

--- a/docs/StructureDefinition-VA.MHV.medication.xlsx
+++ b/docs/StructureDefinition-VA.MHV.medication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2036" uniqueCount="457">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="459">
   <si>
     <t>Property</t>
   </si>
@@ -147,6 +147,9 @@
     <t>constraint</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
     <t>Path</t>
   </si>
   <si>
@@ -901,6 +904,9 @@
   </si>
   <si>
     <t>FiveWs.done[x]</t>
+  </si>
+  <si>
+    <t>MedicationStatement.effective[x]:effectivePeriod</t>
   </si>
   <si>
     <t>effectivePeriod</t>
@@ -1776,7 +1782,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM57"/>
+  <dimension ref="A1:AN57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1786,44 +1792,44 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="52.625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="14.6484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.90234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="52.625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.6484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="87.0390625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="97.04296875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="192.3984375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="70.4765625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.3046875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="37.89453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.87890625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="192.3984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="70.4765625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.73046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="37.89453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="135.96875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="25.01171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="135.96875" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="25.01171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1944,36 +1950,39 @@
       <c r="AM1" t="s" s="1">
         <v>76</v>
       </c>
+      <c r="AN1" t="s" s="1">
+        <v>77</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="B2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>81</v>
@@ -1981,104 +1990,107 @@
       <c r="M2" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="N2" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>31</v>
       </c>
-      <c r="AF2" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AG2" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="AK2" t="s" s="2">
         <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN2" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>88</v>
@@ -2092,107 +2104,110 @@
       <c r="M3" t="s" s="2">
         <v>91</v>
       </c>
-      <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="N3" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN3" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>95</v>
@@ -2200,108 +2215,111 @@
       <c r="L4" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="M4" s="2"/>
+      <c r="M4" t="s" s="2">
+        <v>97</v>
+      </c>
       <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN4" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s" s="2">
         <v>101</v>
@@ -2309,108 +2327,111 @@
       <c r="L5" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="M5" s="2"/>
+      <c r="M5" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN5" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="B6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>108</v>
@@ -2421,110 +2442,113 @@
       <c r="M6" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="N6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="AB6" t="s" s="2">
         <v>112</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>114</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN6" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="L7" t="s" s="2">
         <v>118</v>
@@ -2532,107 +2556,110 @@
       <c r="M7" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="N7" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN7" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>122</v>
+        <v>88</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>123</v>
@@ -2643,107 +2670,110 @@
       <c r="M8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="N8" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>78</v>
+        <v>127</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN8" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>129</v>
@@ -2754,107 +2784,110 @@
       <c r="M9" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="N9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>132</v>
+        <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>78</v>
+        <v>133</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN9" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="K10" t="s" s="2">
         <v>135</v>
@@ -2865,107 +2898,110 @@
       <c r="M10" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="N10" s="2"/>
-      <c r="O10" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="N10" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>138</v>
+        <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN10" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="K11" t="s" s="2">
         <v>141</v>
@@ -2976,31 +3012,31 @@
       <c r="M11" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="N11" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>144</v>
+        <v>78</v>
       </c>
       <c r="X11" t="s" s="2">
         <v>145</v>
@@ -3009,77 +3045,80 @@
         <v>146</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>77</v>
+        <v>147</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>147</v>
+        <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN11" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>86</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>150</v>
@@ -3087,31 +3126,31 @@
       <c r="M12" t="s" s="2">
         <v>151</v>
       </c>
-      <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="N12" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>152</v>
+        <v>78</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>77</v>
+        <v>153</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
         <v>154</v>
@@ -3120,77 +3159,80 @@
         <v>155</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>77</v>
+        <v>156</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>156</v>
+        <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN12" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>159</v>
@@ -3198,107 +3240,110 @@
       <c r="M13" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="N13" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>161</v>
+        <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>78</v>
+        <v>162</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN13" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>163</v>
+        <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>164</v>
@@ -3309,31 +3354,31 @@
       <c r="M14" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="N14" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
         <v>168</v>
@@ -3342,74 +3387,77 @@
         <v>169</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>170</v>
+        <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN14" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="B15" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>174</v>
@@ -3420,107 +3468,110 @@
       <c r="M15" t="s" s="2">
         <v>176</v>
       </c>
-      <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="N15" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>177</v>
+        <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>78</v>
+        <v>178</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>178</v>
+        <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN15" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
-        <v>78</v>
-      </c>
+      <c r="B16" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>181</v>
+        <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>182</v>
@@ -3531,331 +3582,340 @@
       <c r="M16" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="N16" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>185</v>
+        <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN16" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
         <v>108</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>188</v>
+        <v>109</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>189</v>
+        <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>191</v>
+        <v>108</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>192</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>110</v>
+        <v>193</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>193</v>
+        <v>111</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="P18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>194</v>
+        <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>78</v>
+        <v>195</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN18" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="B19" s="2"/>
-      <c r="C19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>196</v>
+        <v>88</v>
       </c>
       <c r="K19" t="s" s="2">
         <v>197</v>
@@ -3866,70 +3926,70 @@
       <c r="M19" t="s" s="2">
         <v>199</v>
       </c>
-      <c r="N19" s="2"/>
-      <c r="O19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P19" s="2"/>
-      <c r="Q19" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="N19" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>78</v>
+        <v>196</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>200</v>
+        <v>99</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>201</v>
@@ -3938,35 +3998,38 @@
         <v>202</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>77</v>
+        <v>203</v>
+      </c>
+      <c r="AN19" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>203</v>
-      </c>
-      <c r="B20" s="2"/>
-      <c r="C20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D20" s="2"/>
-      <c r="E20" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>204</v>
+        <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
         <v>205</v>
@@ -3974,110 +4037,113 @@
       <c r="L20" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="M20" s="2"/>
-      <c r="N20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>207</v>
       </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P20" s="2"/>
-      <c r="Q20" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="P20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>203</v>
+        <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>78</v>
+        <v>204</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>208</v>
+        <v>99</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>209</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>77</v>
+        <v>210</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>211</v>
+        <v>88</v>
       </c>
       <c r="K21" t="s" s="2">
         <v>212</v>
@@ -4085,113 +4151,116 @@
       <c r="L21" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="M21" s="2"/>
-      <c r="N21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>214</v>
       </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P21" s="2"/>
-      <c r="Q21" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="P21" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>210</v>
+        <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>78</v>
+        <v>211</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>215</v>
+        <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>216</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>77</v>
+        <v>217</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="B22" s="2"/>
-      <c r="C22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" t="s" s="2">
-        <v>86</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>163</v>
+        <v>88</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>218</v>
+        <v>164</v>
       </c>
       <c r="L22" t="s" s="2">
         <v>219</v>
@@ -4199,31 +4268,31 @@
       <c r="M22" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="N22" s="2"/>
-      <c r="O22" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P22" s="2"/>
-      <c r="Q22" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="N22" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S22" t="s" s="2">
         <v>11</v>
       </c>
-      <c r="S22" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="T22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>221</v>
+        <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
         <v>222</v>
@@ -4232,37 +4301,37 @@
         <v>223</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>217</v>
+        <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>86</v>
+        <v>218</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>224</v>
+        <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>225</v>
@@ -4271,35 +4340,38 @@
         <v>226</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>77</v>
+        <v>227</v>
+      </c>
+      <c r="AN22" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>228</v>
+        <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
         <v>229</v>
@@ -4310,219 +4382,225 @@
       <c r="M23" t="s" s="2">
         <v>231</v>
       </c>
-      <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="N23" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>232</v>
+        <v>154</v>
       </c>
       <c r="Y23" t="s" s="2">
         <v>233</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>77</v>
+        <v>234</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>227</v>
+        <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>78</v>
+        <v>228</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>234</v>
+        <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>235</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>77</v>
+        <v>236</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN23" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>237</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>228</v>
+        <v>88</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="M24" s="2"/>
+      <c r="M24" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>167</v>
+        <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>239</v>
+        <v>168</v>
       </c>
       <c r="Y24" t="s" s="2">
         <v>240</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>77</v>
+        <v>241</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>236</v>
+        <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>78</v>
+        <v>237</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>241</v>
+        <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>242</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>77</v>
+        <v>243</v>
+      </c>
+      <c r="AN24" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" t="s" s="2">
-        <v>86</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>228</v>
+        <v>88</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="L25" t="s" s="2">
         <v>245</v>
@@ -4530,70 +4608,70 @@
       <c r="M25" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="N25" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="O25" s="2"/>
+      <c r="P25" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>247</v>
+        <v>154</v>
       </c>
       <c r="Y25" t="s" s="2">
         <v>248</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>77</v>
+        <v>249</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>243</v>
+        <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>86</v>
+        <v>244</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>249</v>
+        <v>99</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>250</v>
@@ -4602,35 +4680,38 @@
         <v>251</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>77</v>
+        <v>252</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" t="s" s="2">
-        <v>86</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>253</v>
+        <v>88</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>254</v>
@@ -4638,71 +4719,71 @@
       <c r="L26" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="M26" s="2"/>
+      <c r="M26" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="N26" s="2"/>
-      <c r="O26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>252</v>
+        <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>86</v>
+        <v>253</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>256</v>
+        <v>99</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>257</v>
@@ -4712,34 +4793,37 @@
       </c>
       <c r="AM26" t="s" s="2">
         <v>259</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>260</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>261</v>
+        <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
         <v>262</v>
@@ -4747,108 +4831,111 @@
       <c r="L27" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="M27" s="2"/>
+      <c r="M27" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>260</v>
+        <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>78</v>
+        <v>261</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>264</v>
+        <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>265</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN27" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" t="s" s="2">
-        <v>86</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>267</v>
+        <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>268</v>
@@ -4859,68 +4946,68 @@
       <c r="M28" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="N28" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AB28" s="2"/>
-      <c r="AC28" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AC28" s="2"/>
       <c r="AD28" t="s" s="2">
-        <v>272</v>
+        <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>78</v>
+        <v>267</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>273</v>
+        <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>274</v>
@@ -4929,37 +5016,40 @@
         <v>275</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
+      </c>
+      <c r="AN28" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" t="s" s="2">
-        <v>86</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="D29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>267</v>
+        <v>88</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>268</v>
@@ -4970,70 +5060,70 @@
       <c r="M29" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="N29" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="O29" s="2"/>
+      <c r="P29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>266</v>
+        <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>78</v>
+        <v>267</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>273</v>
+        <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>274</v>
@@ -5042,806 +5132,830 @@
         <v>275</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>77</v>
+        <v>276</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" t="s" s="2">
-        <v>86</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J30" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K30" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q30" s="2"/>
+      <c r="R30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AG30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH30" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J30" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI30" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>281</v>
+        <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>77</v>
+        <v>284</v>
+      </c>
+      <c r="AN30" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>284</v>
+        <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q31" s="2"/>
+      <c r="R31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF31" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="L31" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AG31" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>287</v>
+        <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>77</v>
+        <v>290</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="B32" s="2"/>
-      <c r="C32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>290</v>
+        <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L32" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="O32" s="2"/>
+      <c r="P32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q32" s="2"/>
+      <c r="R32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF32" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="L32" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N32" s="2"/>
-      <c r="O32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P32" s="2"/>
-      <c r="Q32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>294</v>
+        <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>77</v>
+        <v>296</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="B33" s="2"/>
-      <c r="C33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D33" s="2"/>
-      <c r="E33" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>228</v>
+        <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>296</v>
+        <v>229</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="N33" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="O33" s="2"/>
+      <c r="P33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q33" s="2"/>
+      <c r="R33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF33" t="s" s="2">
         <v>297</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N33" s="2"/>
-      <c r="O33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P33" s="2"/>
-      <c r="Q33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W33" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>301</v>
+        <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>77</v>
+        <v>305</v>
+      </c>
+      <c r="AN33" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="B34" s="2"/>
-      <c r="C34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D34" s="2"/>
-      <c r="E34" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="O34" s="2"/>
+      <c r="P34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q34" s="2"/>
+      <c r="R34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="AM34" t="s" s="2">
         <v>305</v>
       </c>
-      <c r="K34" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N34" s="2"/>
-      <c r="O34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P34" s="2"/>
-      <c r="Q34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE34" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AF34" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="AL34" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AM34" t="s" s="2">
-        <v>77</v>
+      <c r="AN34" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="B35" s="2"/>
-      <c r="C35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D35" s="2"/>
-      <c r="E35" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="B35" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>312</v>
+        <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q35" s="2"/>
+      <c r="R35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF35" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P35" s="2"/>
-      <c r="Q35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>315</v>
+        <v>99</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>77</v>
+        <v>318</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN35" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="B36" s="2"/>
-      <c r="C36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="C36" s="2"/>
+      <c r="D36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>318</v>
+        <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="O36" s="2"/>
+      <c r="P36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q36" s="2"/>
+      <c r="R36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF36" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N36" s="2"/>
-      <c r="O36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P36" s="2"/>
-      <c r="Q36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD36" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE36" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="AF36" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>322</v>
+        <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>77</v>
+        <v>324</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="B37" s="2"/>
-      <c r="C37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D37" s="2"/>
-      <c r="E37" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
         <v>101</v>
@@ -5849,108 +5963,111 @@
       <c r="L37" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="M37" s="2"/>
+      <c r="M37" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="N37" s="2"/>
-      <c r="O37" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P37" s="2"/>
-      <c r="Q37" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O37" s="2"/>
+      <c r="P37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="B38" s="2"/>
-      <c r="C38" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>108</v>
@@ -5961,1332 +6078,1368 @@
       <c r="M38" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="N38" s="2"/>
-      <c r="O38" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P38" s="2"/>
-      <c r="Q38" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="N38" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O38" s="2"/>
+      <c r="P38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="AB38" t="s" s="2">
         <v>112</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
         <v>114</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN38" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="B39" s="2"/>
-      <c r="C39" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>327</v>
+      </c>
+      <c r="B39" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>107</v>
+        <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>327</v>
+        <v>108</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>110</v>
+        <v>330</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>193</v>
+        <v>111</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P39" s="2"/>
-      <c r="Q39" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="P39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>329</v>
+        <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>78</v>
+        <v>331</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>186</v>
+        <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>77</v>
+        <v>187</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="B40" s="2"/>
-      <c r="C40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="B40" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="P40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q40" s="2"/>
+      <c r="R40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH40" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J40" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="K40" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P40" s="2"/>
-      <c r="Q40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD40" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE40" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AF40" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG40" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI40" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>336</v>
+        <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>77</v>
+        <v>338</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>337</v>
+        <v>78</v>
+      </c>
+      <c r="AN40" t="s" s="2">
+        <v>339</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="P41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q41" s="2"/>
+      <c r="R41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>338</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="F41" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="G41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="I41" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J41" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="K41" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="L41" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P41" s="2"/>
-      <c r="Q41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE41" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="AF41" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG41" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI41" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ41" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK41" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AL41" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AM41" t="s" s="2">
-        <v>343</v>
+        <v>78</v>
+      </c>
+      <c r="AN41" t="s" s="2">
+        <v>345</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="B42" s="2"/>
-      <c r="C42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>228</v>
+        <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>345</v>
+        <v>229</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P42" s="2"/>
-      <c r="Q42" t="s" s="2">
-        <v>77</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="P42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>153</v>
+        <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>349</v>
+        <v>154</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>77</v>
+        <v>352</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>351</v>
+        <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>78</v>
+        <v>353</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>336</v>
+        <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>77</v>
+        <v>338</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>352</v>
+        <v>78</v>
+      </c>
+      <c r="AN42" t="s" s="2">
+        <v>354</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q43" s="2"/>
+      <c r="R43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH43" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J43" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="K43" t="s" s="2">
+      <c r="AI43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN43" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
-      <c r="O43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P43" s="2"/>
-      <c r="Q43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG43" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI43" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK43" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>352</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="B44" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="P44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q44" s="2"/>
+      <c r="R44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH44" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J44" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="K44" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P44" s="2"/>
-      <c r="Q44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD44" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE44" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="AF44" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG44" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH44" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI44" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>274</v>
+        <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>77</v>
+        <v>275</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN44" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="B45" s="2"/>
-      <c r="C45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D45" s="2"/>
-      <c r="E45" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="B45" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="O45" s="2"/>
+      <c r="P45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q45" s="2"/>
+      <c r="R45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH45" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J45" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="K45" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P45" s="2"/>
-      <c r="Q45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W45" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X45" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="Y45" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="Z45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD45" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE45" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AF45" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG45" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH45" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI45" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>372</v>
+        <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>77</v>
+        <v>374</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>373</v>
+        <v>78</v>
+      </c>
+      <c r="AN45" t="s" s="2">
+        <v>375</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="B46" s="2"/>
-      <c r="C46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D46" s="2"/>
-      <c r="E46" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="B46" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="C46" s="2"/>
+      <c r="D46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J46" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L46" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="O46" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="P46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q46" s="2"/>
+      <c r="R46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF46" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AG46" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH46" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J46" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>375</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>376</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>378</v>
-      </c>
-      <c r="O46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P46" s="2"/>
-      <c r="Q46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AF46" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI46" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>382</v>
+        <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>77</v>
+        <v>384</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>383</v>
+        <v>78</v>
+      </c>
+      <c r="AN46" t="s" s="2">
+        <v>385</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="B47" s="2"/>
-      <c r="C47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D47" s="2"/>
-      <c r="E47" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="P47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="Y47" s="2"/>
+      <c r="Z47" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH47" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J47" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="K47" t="s" s="2">
-        <v>385</v>
-      </c>
-      <c r="L47" t="s" s="2">
-        <v>386</v>
-      </c>
-      <c r="M47" s="2"/>
-      <c r="N47" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="O47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P47" s="2"/>
-      <c r="Q47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="X47" s="2"/>
-      <c r="Y47" t="s" s="2">
-        <v>388</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI47" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>390</v>
+        <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>77</v>
+        <v>392</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>391</v>
+        <v>78</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>393</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>392</v>
-      </c>
-      <c r="B48" s="2"/>
-      <c r="C48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D48" s="2"/>
-      <c r="E48" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="O48" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="P48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH48" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J48" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="K48" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="L48" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P48" s="2"/>
-      <c r="Q48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W48" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X48" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="Y48" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>399</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG48" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI48" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>400</v>
+        <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>77</v>
+        <v>402</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>401</v>
+        <v>78</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>403</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="B49" s="2"/>
-      <c r="C49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D49" s="2"/>
-      <c r="E49" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>403</v>
+        <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>406</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P49" s="2"/>
-      <c r="Q49" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O49" s="2"/>
+      <c r="P49" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>406</v>
+        <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>78</v>
+        <v>408</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>407</v>
+        <v>78</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>409</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="B50" s="2"/>
-      <c r="C50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D50" s="2"/>
-      <c r="E50" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
         <v>101</v>
@@ -7294,108 +7447,111 @@
       <c r="L50" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="M50" s="2"/>
+      <c r="M50" t="s" s="2">
+        <v>103</v>
+      </c>
       <c r="N50" s="2"/>
-      <c r="O50" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P50" s="2"/>
-      <c r="Q50" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="O50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AD50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>103</v>
+        <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="B51" s="2"/>
-      <c r="C51" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="D51" s="2"/>
-      <c r="E51" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="K51" t="s" s="2">
         <v>108</v>
@@ -7406,753 +7562,774 @@
       <c r="M51" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="N51" s="2"/>
-      <c r="O51" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P51" s="2"/>
-      <c r="Q51" t="s" s="2">
-        <v>77</v>
-      </c>
+      <c r="N51" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="S51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="T51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="V51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="AB51" t="s" s="2">
         <v>112</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
         <v>114</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>410</v>
-      </c>
-      <c r="B52" s="2"/>
-      <c r="C52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D52" s="2"/>
-      <c r="E52" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>412</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="P52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH52" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J52" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="K52" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="L52" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P52" s="2"/>
-      <c r="Q52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="AF52" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI52" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>417</v>
+        <v>78</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>419</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="B53" s="2"/>
-      <c r="C53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D53" s="2"/>
-      <c r="E53" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="P53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH53" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J53" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="K53" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="L53" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P53" s="2"/>
-      <c r="Q53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD53" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE53" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="AF53" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG53" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH53" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI53" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>400</v>
+        <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>77</v>
+        <v>402</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>425</v>
+        <v>78</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>427</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D54" s="2"/>
-      <c r="E54" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>428</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="P54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH54" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J54" t="s" s="2">
-        <v>427</v>
-      </c>
-      <c r="K54" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>429</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>430</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P54" s="2"/>
-      <c r="Q54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI54" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>433</v>
+        <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>77</v>
+        <v>435</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>434</v>
+        <v>78</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>436</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>435</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D55" s="2"/>
-      <c r="E55" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="P55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH55" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J55" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="K55" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="L55" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>440</v>
-      </c>
-      <c r="O55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P55" s="2"/>
-      <c r="Q55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD55" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE55" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AF55" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI55" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>442</v>
+        <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>77</v>
+        <v>444</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>443</v>
+        <v>78</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>445</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>444</v>
-      </c>
-      <c r="B56" s="2"/>
-      <c r="C56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D56" s="2"/>
-      <c r="E56" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="O56" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="P56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH56" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J56" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="K56" t="s" s="2">
-        <v>446</v>
-      </c>
-      <c r="L56" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>449</v>
-      </c>
-      <c r="O56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P56" s="2"/>
-      <c r="Q56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD56" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE56" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="AF56" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG56" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AI56" t="s" s="2">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>451</v>
+        <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>77</v>
+        <v>453</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>452</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="D57" s="2"/>
-      <c r="E57" t="s" s="2">
-        <v>78</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="P57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH57" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="J57" t="s" s="2">
-        <v>445</v>
-      </c>
-      <c r="K57" t="s" s="2">
+      <c r="AI57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="L57" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="M57" s="2"/>
-      <c r="N57" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="O57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="P57" s="2"/>
-      <c r="Q57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="R57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>77</v>
-      </c>
       <c r="AM57" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/docs/StructureDefinition-VA.MHV.medication.xlsx
+++ b/docs/StructureDefinition-VA.MHV.medication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="459">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="460">
   <si>
     <t>Property</t>
   </si>
@@ -274,6 +274,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Record of medication being taken by a patient</t>
@@ -1982,16 +1986,16 @@
         <v>78</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2056,10 +2060,10 @@
         <v>78</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>78</v>
@@ -2070,10 +2074,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2084,7 +2088,7 @@
         <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>78</v>
@@ -2093,19 +2097,19 @@
         <v>78</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2155,13 +2159,13 @@
         <v>78</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>78</v>
@@ -2184,10 +2188,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2198,7 +2202,7 @@
         <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>78</v>
@@ -2207,16 +2211,16 @@
         <v>78</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2267,19 +2271,19 @@
         <v>78</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>78</v>
@@ -2296,10 +2300,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2310,7 +2314,7 @@
         <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>78</v>
@@ -2322,13 +2326,13 @@
         <v>78</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2379,13 +2383,13 @@
         <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>78</v>
@@ -2397,7 +2401,7 @@
         <v>78</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>78</v>
@@ -2408,14 +2412,14 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2434,16 +2438,16 @@
         <v>78</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2481,19 +2485,19 @@
         <v>78</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
@@ -2505,13 +2509,13 @@
         <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>78</v>
@@ -2522,10 +2526,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2536,7 +2540,7 @@
         <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>78</v>
@@ -2545,19 +2549,19 @@
         <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2607,19 +2611,19 @@
         <v>78</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>78</v>
@@ -2636,10 +2640,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2650,7 +2654,7 @@
         <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>78</v>
@@ -2659,19 +2663,19 @@
         <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2721,19 +2725,19 @@
         <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>78</v>
@@ -2750,10 +2754,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2764,7 +2768,7 @@
         <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>78</v>
@@ -2773,19 +2777,19 @@
         <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2835,19 +2839,19 @@
         <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>78</v>
@@ -2864,10 +2868,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2887,19 +2891,19 @@
         <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2949,7 +2953,7 @@
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2961,7 +2965,7 @@
         <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>78</v>
@@ -2978,10 +2982,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3001,19 +3005,19 @@
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3039,13 +3043,13 @@
         <v>78</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>78</v>
@@ -3063,7 +3067,7 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -3075,7 +3079,7 @@
         <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>78</v>
@@ -3092,10 +3096,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3103,10 +3107,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>78</v>
@@ -3115,19 +3119,19 @@
         <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3138,7 +3142,7 @@
         <v>78</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>78</v>
@@ -3153,13 +3157,13 @@
         <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>78</v>
@@ -3177,7 +3181,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3189,7 +3193,7 @@
         <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>78</v>
@@ -3206,10 +3210,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3220,28 +3224,28 @@
         <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3291,19 +3295,19 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>78</v>
@@ -3320,10 +3324,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3334,7 +3338,7 @@
         <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>78</v>
@@ -3346,16 +3350,16 @@
         <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3381,13 +3385,13 @@
         <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>78</v>
@@ -3405,19 +3409,19 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>78</v>
@@ -3434,21 +3438,21 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>78</v>
@@ -3460,16 +3464,16 @@
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3519,25 +3523,25 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>78</v>
@@ -3548,14 +3552,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3574,16 +3578,16 @@
         <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3633,7 +3637,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3651,7 +3655,7 @@
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
@@ -3662,14 +3666,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3688,16 +3692,16 @@
         <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3747,7 +3751,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3759,13 +3763,13 @@
         <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>78</v>
@@ -3776,14 +3780,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3796,25 +3800,25 @@
         <v>78</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>78</v>
@@ -3863,7 +3867,7 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3875,13 +3879,13 @@
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>78</v>
@@ -3892,10 +3896,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3906,7 +3910,7 @@
         <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>78</v>
@@ -3915,19 +3919,19 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3977,7 +3981,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3989,16 +3993,16 @@
         <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>78</v>
@@ -4006,10 +4010,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4020,7 +4024,7 @@
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>78</v>
@@ -4029,20 +4033,20 @@
         <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>78</v>
@@ -4091,7 +4095,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4103,13 +4107,13 @@
         <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>78</v>
@@ -4120,10 +4124,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4134,7 +4138,7 @@
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>78</v>
@@ -4143,20 +4147,20 @@
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>78</v>
@@ -4205,7 +4209,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4217,13 +4221,13 @@
         <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>78</v>
@@ -4234,10 +4238,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4245,31 +4249,31 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4295,13 +4299,13 @@
         <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>78</v>
@@ -4319,28 +4323,28 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>78</v>
@@ -4348,10 +4352,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4374,16 +4378,16 @@
         <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4409,13 +4413,13 @@
         <v>78</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>78</v>
@@ -4433,7 +4437,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4445,13 +4449,13 @@
         <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>78</v>
@@ -4462,10 +4466,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4476,7 +4480,7 @@
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
@@ -4485,16 +4489,16 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4521,13 +4525,13 @@
         <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>78</v>
@@ -4545,28 +4549,28 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>78</v>
@@ -4574,10 +4578,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4585,10 +4589,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>78</v>
@@ -4597,19 +4601,19 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4635,13 +4639,13 @@
         <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>78</v>
@@ -4659,28 +4663,28 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>78</v>
@@ -4688,10 +4692,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4699,10 +4703,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>78</v>
@@ -4711,16 +4715,16 @@
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4771,39 +4775,39 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4823,16 +4827,16 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4883,25 +4887,25 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>78</v>
@@ -4912,10 +4916,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4923,10 +4927,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
@@ -4935,19 +4939,19 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4985,38 +4989,38 @@
         <v>78</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="AC28" s="2"/>
       <c r="AD28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>78</v>
@@ -5024,23 +5028,23 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C29" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>78</v>
@@ -5049,19 +5053,19 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5111,28 +5115,28 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
@@ -5140,10 +5144,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5151,10 +5155,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>78</v>
@@ -5163,16 +5167,16 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5223,28 +5227,28 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>78</v>
@@ -5252,10 +5256,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5266,7 +5270,7 @@
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
@@ -5278,13 +5282,13 @@
         <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5335,28 +5339,28 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5364,10 +5368,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5390,16 +5394,16 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5449,7 +5453,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5461,13 +5465,13 @@
         <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>78</v>
@@ -5478,10 +5482,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5492,7 +5496,7 @@
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
@@ -5504,16 +5508,16 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5539,13 +5543,13 @@
         <v>78</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>78</v>
@@ -5563,7 +5567,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5575,16 +5579,16 @@
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
@@ -5592,10 +5596,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5618,16 +5622,16 @@
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
@@ -5677,7 +5681,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5689,16 +5693,16 @@
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>78</v>
@@ -5706,10 +5710,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5720,7 +5724,7 @@
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
@@ -5732,13 +5736,13 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -5789,7 +5793,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5801,13 +5805,13 @@
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -5818,10 +5822,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5832,7 +5836,7 @@
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
@@ -5844,16 +5848,16 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5903,7 +5907,7 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -5915,13 +5919,13 @@
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
@@ -5932,10 +5936,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5946,7 +5950,7 @@
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -5958,13 +5962,13 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6015,13 +6019,13 @@
         <v>78</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
@@ -6033,7 +6037,7 @@
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
@@ -6044,14 +6048,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6070,16 +6074,16 @@
         <v>78</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6117,19 +6121,19 @@
         <v>78</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6141,13 +6145,13 @@
         <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
@@ -6158,14 +6162,14 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
@@ -6178,25 +6182,25 @@
         <v>78</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>78</v>
@@ -6245,7 +6249,7 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6257,13 +6261,13 @@
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
@@ -6274,10 +6278,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6288,7 +6292,7 @@
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>78</v>
@@ -6297,20 +6301,20 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -6359,39 +6363,39 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6402,7 +6406,7 @@
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>78</v>
@@ -6411,20 +6415,20 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>78</v>
@@ -6473,39 +6477,39 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6525,22 +6529,22 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>78</v>
@@ -6565,13 +6569,13 @@
         <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>78</v>
@@ -6589,7 +6593,7 @@
         <v>78</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -6601,27 +6605,27 @@
         <v>78</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6632,7 +6636,7 @@
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
@@ -6641,16 +6645,16 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6701,39 +6705,39 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6744,7 +6748,7 @@
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
@@ -6753,22 +6757,22 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>78</v>
@@ -6817,25 +6821,25 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
@@ -6846,10 +6850,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6860,7 +6864,7 @@
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>78</v>
@@ -6869,19 +6873,19 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -6907,13 +6911,13 @@
         <v>78</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>78</v>
@@ -6931,39 +6935,39 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6974,7 +6978,7 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
@@ -6983,22 +6987,22 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -7023,13 +7027,13 @@
         <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>78</v>
@@ -7047,39 +7051,39 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7090,7 +7094,7 @@
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
@@ -7099,20 +7103,20 @@
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>78</v>
@@ -7137,11 +7141,11 @@
         <v>78</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Y47" s="2"/>
       <c r="Z47" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>78</v>
@@ -7159,39 +7163,39 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7202,7 +7206,7 @@
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>78</v>
@@ -7211,22 +7215,22 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>78</v>
@@ -7251,13 +7255,13 @@
         <v>78</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>78</v>
@@ -7275,39 +7279,39 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7327,16 +7331,16 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7387,7 +7391,7 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -7399,7 +7403,7 @@
         <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>78</v>
@@ -7411,15 +7415,15 @@
         <v>78</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7430,7 +7434,7 @@
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>78</v>
@@ -7442,13 +7446,13 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7499,13 +7503,13 @@
         <v>78</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>78</v>
@@ -7517,7 +7521,7 @@
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
@@ -7528,14 +7532,14 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7554,16 +7558,16 @@
         <v>78</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -7601,19 +7605,19 @@
         <v>78</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -7625,13 +7629,13 @@
         <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
@@ -7642,10 +7646,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7656,7 +7660,7 @@
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>78</v>
@@ -7665,20 +7669,20 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>78</v>
@@ -7703,13 +7707,13 @@
         <v>78</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>78</v>
@@ -7727,19 +7731,19 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>78</v>
@@ -7751,15 +7755,15 @@
         <v>78</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7770,7 +7774,7 @@
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
@@ -7779,22 +7783,22 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -7843,39 +7847,39 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7886,7 +7890,7 @@
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>78</v>
@@ -7895,22 +7899,22 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -7959,39 +7963,39 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8002,7 +8006,7 @@
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>78</v>
@@ -8011,22 +8015,22 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -8075,39 +8079,39 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8118,7 +8122,7 @@
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>78</v>
@@ -8127,22 +8131,22 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O56" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8191,25 +8195,25 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>
@@ -8220,10 +8224,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8234,7 +8238,7 @@
         <v>79</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>78</v>
@@ -8243,20 +8247,20 @@
         <v>78</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>78</v>
@@ -8305,25 +8309,25 @@
         <v>78</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>78</v>

--- a/docs/StructureDefinition-VA.MHV.medication.xlsx
+++ b/docs/StructureDefinition-VA.MHV.medication.xlsx
@@ -84,7 +84,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A profile on the MedicationStatement that declares how MHV will Create/Update in PGHD.
+    <t>A profile on the MedicationStatement that declares how MHV will Create in PGHD.
 **Proposed mapping not yet approved for implementation**
 * NOT Derived off of US-Core as there is no MedicationStatement in US-Core
 * must be marked with MHV app tag

--- a/docs/StructureDefinition-VA.MHV.medication.xlsx
+++ b/docs/StructureDefinition-VA.MHV.medication.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2093" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2057" uniqueCount="457">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.9-beta</t>
+    <t>0.2.10-beta</t>
   </si>
   <si>
     <t>Name</t>
@@ -299,6 +299,10 @@
 Status=In Error + NotTaken=N/A = In Error.</t>
   </si>
   <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+  </si>
+  <si>
     <t>Event</t>
   </si>
   <si>
@@ -450,7 +454,7 @@
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -470,7 +474,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -894,13 +898,6 @@
     <t>This attribute reflects the period over which the patient consumed the medication and is expected to be populated on the majority of Medication Statements. If the medication is still being taken at the time the statement is recorded, the "end" date will be omitted.  The date/time attribute supports a variety of dates - year, year/month and exact date.  If something more than this is required, this should be conveyed as text.</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>Event.occurrence[x]</t>
   </si>
   <si>
@@ -908,12 +905,6 @@
   </si>
   <si>
     <t>FiveWs.done[x]</t>
-  </si>
-  <si>
-    <t>MedicationStatement.effective[x]:effectivePeriod</t>
-  </si>
-  <si>
-    <t>effectivePeriod</t>
   </si>
   <si>
     <t>MedicationStatement.dateAsserted</t>
@@ -1593,10 +1584,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1786,7 +1777,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN57"/>
+  <dimension ref="A1:AN56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1797,7 +1788,7 @@
   <cols>
     <col min="1" max="1" width="52.625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="52.625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.6484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="11.1328125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -2057,13 +2048,13 @@
         <v>78</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AM2" t="s" s="2">
         <v>78</v>
@@ -2074,10 +2065,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2088,7 +2079,7 @@
         <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>78</v>
@@ -2097,19 +2088,19 @@
         <v>78</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
@@ -2159,13 +2150,13 @@
         <v>78</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>78</v>
@@ -2188,10 +2179,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2202,7 +2193,7 @@
         <v>79</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>78</v>
@@ -2211,16 +2202,16 @@
         <v>78</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2271,19 +2262,19 @@
         <v>78</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK4" t="s" s="2">
         <v>78</v>
@@ -2300,10 +2291,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2314,7 +2305,7 @@
         <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>78</v>
@@ -2326,13 +2317,13 @@
         <v>78</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -2383,13 +2374,13 @@
         <v>78</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>78</v>
@@ -2401,7 +2392,7 @@
         <v>78</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AM5" t="s" s="2">
         <v>78</v>
@@ -2412,14 +2403,14 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
@@ -2438,16 +2429,16 @@
         <v>78</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2485,19 +2476,19 @@
         <v>78</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AD6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
@@ -2509,13 +2500,13 @@
         <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AM6" t="s" s="2">
         <v>78</v>
@@ -2526,10 +2517,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -2540,7 +2531,7 @@
         <v>79</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>78</v>
@@ -2549,19 +2540,19 @@
         <v>78</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -2611,19 +2602,19 @@
         <v>78</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>78</v>
@@ -2640,10 +2631,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -2654,7 +2645,7 @@
         <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>78</v>
@@ -2663,19 +2654,19 @@
         <v>78</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -2725,19 +2716,19 @@
         <v>78</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>78</v>
@@ -2754,10 +2745,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -2768,7 +2759,7 @@
         <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>78</v>
@@ -2777,19 +2768,19 @@
         <v>78</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2839,19 +2830,19 @@
         <v>78</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>78</v>
@@ -2868,10 +2859,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2891,19 +2882,19 @@
         <v>78</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2953,7 +2944,7 @@
         <v>78</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>79</v>
@@ -2965,7 +2956,7 @@
         <v>78</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>78</v>
@@ -2982,10 +2973,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3005,19 +2996,19 @@
         <v>78</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3043,13 +3034,13 @@
         <v>78</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>78</v>
@@ -3067,7 +3058,7 @@
         <v>78</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>79</v>
@@ -3079,7 +3070,7 @@
         <v>78</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>78</v>
@@ -3096,10 +3087,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3107,10 +3098,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>78</v>
@@ -3119,19 +3110,19 @@
         <v>78</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3142,7 +3133,7 @@
         <v>78</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>78</v>
@@ -3157,13 +3148,13 @@
         <v>78</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>78</v>
@@ -3181,7 +3172,7 @@
         <v>78</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3193,7 +3184,7 @@
         <v>78</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>78</v>
@@ -3210,10 +3201,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3224,28 +3215,28 @@
         <v>79</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3295,19 +3286,19 @@
         <v>78</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>78</v>
@@ -3324,10 +3315,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3338,7 +3329,7 @@
         <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>78</v>
@@ -3350,16 +3341,16 @@
         <v>78</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3385,13 +3376,13 @@
         <v>78</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>78</v>
@@ -3409,19 +3400,19 @@
         <v>78</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>78</v>
@@ -3438,21 +3429,21 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>78</v>
@@ -3464,16 +3455,16 @@
         <v>78</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3523,25 +3514,25 @@
         <v>78</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>78</v>
@@ -3552,14 +3543,14 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3578,16 +3569,16 @@
         <v>78</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -3637,7 +3628,7 @@
         <v>78</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>79</v>
@@ -3655,7 +3646,7 @@
         <v>78</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM16" t="s" s="2">
         <v>78</v>
@@ -3666,14 +3657,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3692,16 +3683,16 @@
         <v>78</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
@@ -3751,7 +3742,7 @@
         <v>78</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -3763,13 +3754,13 @@
         <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>78</v>
@@ -3780,14 +3771,14 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -3800,25 +3791,25 @@
         <v>78</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="O18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>78</v>
@@ -3867,7 +3858,7 @@
         <v>78</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -3879,13 +3870,13 @@
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>78</v>
@@ -3896,10 +3887,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3910,7 +3901,7 @@
         <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>78</v>
@@ -3919,19 +3910,19 @@
         <v>78</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -3981,7 +3972,7 @@
         <v>78</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -3993,16 +3984,16 @@
         <v>78</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>78</v>
@@ -4010,10 +4001,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4024,7 +4015,7 @@
         <v>79</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>78</v>
@@ -4033,20 +4024,20 @@
         <v>78</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>78</v>
@@ -4095,7 +4086,7 @@
         <v>78</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4107,13 +4098,13 @@
         <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>78</v>
@@ -4124,10 +4115,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4138,7 +4129,7 @@
         <v>79</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>78</v>
@@ -4147,20 +4138,20 @@
         <v>78</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>78</v>
@@ -4209,7 +4200,7 @@
         <v>78</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4221,13 +4212,13 @@
         <v>78</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>78</v>
@@ -4238,10 +4229,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4249,31 +4240,31 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4299,13 +4290,13 @@
         <v>78</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>78</v>
@@ -4323,28 +4314,28 @@
         <v>78</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>78</v>
@@ -4352,10 +4343,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4378,16 +4369,16 @@
         <v>78</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -4413,13 +4404,13 @@
         <v>78</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>78</v>
@@ -4437,7 +4428,7 @@
         <v>78</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -4449,13 +4440,13 @@
         <v>78</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>78</v>
@@ -4466,10 +4457,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4480,7 +4471,7 @@
         <v>79</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>78</v>
@@ -4489,16 +4480,16 @@
         <v>78</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4525,13 +4516,13 @@
         <v>78</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>78</v>
@@ -4549,28 +4540,28 @@
         <v>78</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>78</v>
@@ -4578,10 +4569,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4589,10 +4580,10 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>78</v>
@@ -4601,19 +4592,19 @@
         <v>78</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -4639,13 +4630,13 @@
         <v>78</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>78</v>
@@ -4663,28 +4654,28 @@
         <v>78</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>78</v>
@@ -4692,10 +4683,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4703,10 +4694,10 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>78</v>
@@ -4715,16 +4706,16 @@
         <v>78</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4775,39 +4766,39 @@
         <v>78</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4827,16 +4818,16 @@
         <v>78</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4887,25 +4878,25 @@
         <v>78</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>78</v>
@@ -4916,10 +4907,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4927,10 +4918,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>78</v>
@@ -4939,19 +4930,19 @@
         <v>78</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -4989,38 +4980,40 @@
         <v>78</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AC28" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>78</v>
+      </c>
       <c r="AD28" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AG28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK28" t="s" s="2">
         <v>274</v>
       </c>
-      <c r="AF28" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AL28" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AM28" t="s" s="2">
-        <v>277</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>78</v>
@@ -5028,23 +5021,21 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="C29" t="s" s="2">
-        <v>279</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>78</v>
@@ -5053,20 +5044,18 @@
         <v>78</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>78</v>
@@ -5115,28 +5104,28 @@
         <v>78</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>268</v>
+        <v>277</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>275</v>
+        <v>78</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>78</v>
@@ -5144,10 +5133,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5155,10 +5144,10 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>78</v>
@@ -5167,16 +5156,16 @@
         <v>78</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5227,28 +5216,28 @@
         <v>78</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>78</v>
@@ -5256,10 +5245,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5270,7 +5259,7 @@
         <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>78</v>
@@ -5282,15 +5271,17 @@
         <v>78</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>292</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>293</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>78</v>
@@ -5339,28 +5330,28 @@
         <v>78</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>291</v>
+        <v>78</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>78</v>
@@ -5368,10 +5359,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5382,7 +5373,7 @@
         <v>79</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>78</v>
@@ -5394,16 +5385,16 @@
         <v>78</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>293</v>
+        <v>231</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5429,13 +5420,13 @@
         <v>78</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>78</v>
+        <v>299</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>78</v>
+        <v>300</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>78</v>
@@ -5453,7 +5444,7 @@
         <v>78</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -5465,16 +5456,16 @@
         <v>78</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>78</v>
+        <v>301</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>78</v>
+        <v>303</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>78</v>
@@ -5482,10 +5473,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5496,7 +5487,7 @@
         <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>78</v>
@@ -5508,16 +5499,16 @@
         <v>78</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>230</v>
+        <v>305</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5543,13 +5534,13 @@
         <v>78</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>302</v>
+        <v>78</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>303</v>
+        <v>78</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>78</v>
@@ -5567,7 +5558,7 @@
         <v>78</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -5579,16 +5570,16 @@
         <v>78</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>78</v>
@@ -5596,10 +5587,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5610,7 +5601,7 @@
         <v>79</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>78</v>
@@ -5622,17 +5613,15 @@
         <v>78</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>311</v>
-      </c>
+        <v>314</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>78</v>
@@ -5681,7 +5670,7 @@
         <v>78</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -5693,16 +5682,16 @@
         <v>78</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>306</v>
+        <v>78</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>78</v>
@@ -5710,10 +5699,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5724,7 +5713,7 @@
         <v>79</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>78</v>
@@ -5736,15 +5725,17 @@
         <v>78</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>320</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>321</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>78</v>
@@ -5793,7 +5784,7 @@
         <v>78</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -5805,13 +5796,13 @@
         <v>78</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>318</v>
+        <v>78</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>78</v>
@@ -5822,10 +5813,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5836,7 +5827,7 @@
         <v>79</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>78</v>
@@ -5848,17 +5839,15 @@
         <v>78</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>321</v>
+        <v>103</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>322</v>
+        <v>104</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>324</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
         <v>78</v>
@@ -5907,25 +5896,25 @@
         <v>78</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>320</v>
+        <v>106</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>325</v>
+        <v>107</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>78</v>
@@ -5936,21 +5925,21 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>78</v>
@@ -5962,15 +5951,17 @@
         <v>78</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>78</v>
@@ -6007,37 +5998,37 @@
         <v>78</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AD37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>78</v>
@@ -6048,14 +6039,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>108</v>
+        <v>326</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6068,24 +6059,26 @@
         <v>78</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>110</v>
+        <v>327</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>111</v>
+        <v>328</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="P38" t="s" s="2">
         <v>78</v>
       </c>
@@ -6121,19 +6114,19 @@
         <v>78</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AD38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>116</v>
+        <v>329</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6145,13 +6138,13 @@
         <v>78</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>106</v>
+        <v>189</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>78</v>
@@ -6162,45 +6155,43 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>329</v>
+        <v>78</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>109</v>
+        <v>331</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>112</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
-        <v>195</v>
+        <v>334</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>78</v>
@@ -6249,39 +6240,39 @@
         <v>78</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>188</v>
+        <v>336</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>78</v>
+        <v>337</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6292,7 +6283,7 @@
         <v>79</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>78</v>
@@ -6301,20 +6292,20 @@
         <v>78</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>334</v>
+        <v>103</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>78</v>
@@ -6363,39 +6354,39 @@
         <v>78</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6406,7 +6397,7 @@
         <v>79</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>78</v>
@@ -6415,20 +6406,22 @@
         <v>78</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>102</v>
+        <v>231</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>346</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>347</v>
+      </c>
       <c r="O41" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="P41" t="s" s="2">
         <v>78</v>
@@ -6453,13 +6446,13 @@
         <v>78</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>78</v>
+        <v>349</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>78</v>
+        <v>350</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>78</v>
@@ -6477,39 +6470,39 @@
         <v>78</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6520,7 +6513,7 @@
         <v>79</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>78</v>
@@ -6529,23 +6522,19 @@
         <v>78</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>230</v>
+        <v>103</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>78</v>
       </c>
@@ -6569,63 +6558,63 @@
         <v>78</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="Y42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="Z42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="Z42" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AA42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF42" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AG42" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>355</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6636,7 +6625,7 @@
         <v>79</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>78</v>
@@ -6645,19 +6634,23 @@
         <v>78</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>102</v>
+        <v>358</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="N43" s="2"/>
-      <c r="O43" s="2"/>
+        <v>360</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>78</v>
       </c>
@@ -6705,39 +6698,39 @@
         <v>78</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>339</v>
+        <v>275</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>355</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6748,7 +6741,7 @@
         <v>79</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>78</v>
@@ -6757,23 +6750,21 @@
         <v>78</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="O44" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>368</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>78</v>
       </c>
@@ -6797,13 +6788,13 @@
         <v>78</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>78</v>
+        <v>369</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>78</v>
+        <v>370</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>78</v>
@@ -6821,39 +6812,39 @@
         <v>78</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>276</v>
+        <v>372</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>78</v>
+        <v>373</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>367</v>
+        <v>374</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6864,7 +6855,7 @@
         <v>79</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>78</v>
@@ -6873,21 +6864,23 @@
         <v>78</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>368</v>
+        <v>231</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="O45" s="2"/>
+        <v>377</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>378</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>78</v>
       </c>
@@ -6911,13 +6904,13 @@
         <v>78</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>78</v>
@@ -6935,39 +6928,39 @@
         <v>78</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>376</v>
+        <v>383</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6978,7 +6971,7 @@
         <v>79</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>78</v>
@@ -6987,22 +6980,20 @@
         <v>78</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>380</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>78</v>
@@ -7027,13 +7018,11 @@
         <v>78</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>382</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="Y46" s="2"/>
       <c r="Z46" t="s" s="2">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="AA46" t="s" s="2">
         <v>78</v>
@@ -7051,39 +7040,39 @@
         <v>78</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7094,7 +7083,7 @@
         <v>79</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>78</v>
@@ -7103,20 +7092,22 @@
         <v>78</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>394</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>395</v>
+      </c>
       <c r="O47" t="s" s="2">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>78</v>
@@ -7141,11 +7132,13 @@
         <v>78</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="Y47" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>397</v>
+      </c>
       <c r="Z47" t="s" s="2">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="AA47" t="s" s="2">
         <v>78</v>
@@ -7163,39 +7156,39 @@
         <v>78</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>394</v>
+        <v>401</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7206,7 +7199,7 @@
         <v>79</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>78</v>
@@ -7215,23 +7208,19 @@
         <v>78</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>230</v>
+        <v>403</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>399</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>78</v>
       </c>
@@ -7255,13 +7244,13 @@
         <v>78</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>400</v>
+        <v>78</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>401</v>
+        <v>78</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>78</v>
@@ -7279,39 +7268,39 @@
         <v>78</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>403</v>
+        <v>78</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>404</v>
+        <v>407</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7322,7 +7311,7 @@
         <v>79</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>78</v>
@@ -7331,16 +7320,16 @@
         <v>78</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>406</v>
+        <v>103</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>407</v>
+        <v>104</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>408</v>
+        <v>105</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7391,50 +7380,50 @@
         <v>78</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>409</v>
+        <v>106</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>78</v>
+        <v>107</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>410</v>
+        <v>78</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>78</v>
@@ -7446,15 +7435,17 @@
         <v>78</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>78</v>
@@ -7491,37 +7482,37 @@
         <v>78</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>78</v>
+        <v>114</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>78</v>
+        <v>116</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>78</v>
@@ -7532,21 +7523,21 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>78</v>
@@ -7555,21 +7546,21 @@
         <v>78</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>109</v>
+        <v>231</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>110</v>
+        <v>411</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>78</v>
       </c>
@@ -7593,63 +7584,63 @@
         <v>78</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>78</v>
+        <v>156</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>78</v>
+        <v>414</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>78</v>
+        <v>415</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>115</v>
+        <v>78</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>116</v>
+        <v>416</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>78</v>
+        <v>417</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7660,7 +7651,7 @@
         <v>79</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>78</v>
@@ -7669,20 +7660,22 @@
         <v>78</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>230</v>
+        <v>419</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>415</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>421</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>422</v>
+      </c>
       <c r="O52" t="s" s="2">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>78</v>
@@ -7707,13 +7700,13 @@
         <v>78</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>155</v>
+        <v>78</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>417</v>
+        <v>78</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>418</v>
+        <v>78</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>78</v>
@@ -7731,39 +7724,39 @@
         <v>78</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>78</v>
+        <v>400</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7774,7 +7767,7 @@
         <v>79</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>78</v>
@@ -7783,22 +7776,22 @@
         <v>78</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>78</v>
@@ -7847,39 +7840,39 @@
         <v>78</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>403</v>
+        <v>433</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>428</v>
+        <v>434</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7890,7 +7883,7 @@
         <v>79</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>78</v>
@@ -7899,22 +7892,22 @@
         <v>78</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="O54" t="s" s="2">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="P54" t="s" s="2">
         <v>78</v>
@@ -7963,39 +7956,39 @@
         <v>78</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>437</v>
+        <v>443</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8006,7 +7999,7 @@
         <v>79</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>78</v>
@@ -8015,22 +8008,22 @@
         <v>78</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>78</v>
@@ -8079,39 +8072,39 @@
         <v>78</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>446</v>
+        <v>78</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8122,7 +8115,7 @@
         <v>79</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>78</v>
@@ -8131,22 +8124,20 @@
         <v>78</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>454</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>78</v>
@@ -8195,144 +8186,30 @@
         <v>78</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="B57" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="E57" s="2"/>
-      <c r="F57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="G57" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="J57" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="K57" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="N57" s="2"/>
-      <c r="O57" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="P57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="T57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="U57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="V57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="W57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="X57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Y57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="Z57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AA57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AB57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AC57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AD57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AE57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AF57" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>100</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>454</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AN57" t="s" s="2">
         <v>78</v>
       </c>
     </row>
